--- a/hardware/Fabrication files/fydp-pick-and-place.xlsx
+++ b/hardware/Fabrication files/fydp-pick-and-place.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingze\Documents\KiCad\7.0\projects\FYDP\hardware\Fabrication files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C58E080D-D98B-4468-9BDD-AD05497616B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461487E-4F44-4264-9D14-384A05B1F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fydp-pick-and-place" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="235">
   <si>
     <t>Val</t>
   </si>
@@ -698,12 +698,39 @@
   </si>
   <si>
     <t>Layer</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>CONN_105450-0101_MOL</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix_PT-1,5-2-3.5-H_1x02_P3.50mm_Horizontal</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>CONN1_5011_KEY</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,11 +1587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,19 +3148,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>226</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1054500101</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="D68">
-        <v>187.91919999999999</v>
+        <v>196.17999800000001</v>
       </c>
       <c r="E68">
-        <v>-95.652500000000003</v>
+        <v>-75.75</v>
       </c>
       <c r="F68">
         <v>180</v>
@@ -3144,22 +3171,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>91</v>
+        <v>228</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1751248</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="D69">
-        <v>206.16249999999999</v>
+        <v>205.8</v>
       </c>
       <c r="E69">
-        <v>-98.8</v>
+        <v>-92</v>
       </c>
       <c r="F69">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
@@ -3167,22 +3194,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>91</v>
+        <v>230</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5011</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="D70">
-        <v>198.6</v>
+        <v>137</v>
       </c>
       <c r="E70">
-        <v>-98.8</v>
+        <v>-98.5</v>
       </c>
       <c r="F70">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
@@ -3190,22 +3217,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>232</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5011</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="D71">
-        <v>183.91919999999999</v>
+        <v>181.25</v>
       </c>
       <c r="E71">
-        <v>-104.7</v>
+        <v>-113</v>
       </c>
       <c r="F71">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
@@ -3213,22 +3240,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>5011</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="D72">
-        <v>191.41919999999999</v>
+        <v>181.25</v>
       </c>
       <c r="E72">
-        <v>-100.6525</v>
+        <v>-89.5</v>
       </c>
       <c r="F72">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
@@ -3236,22 +3263,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>98</v>
+        <v>234</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5011</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="D73">
-        <v>185.91919999999999</v>
+        <v>137</v>
       </c>
       <c r="E73">
-        <v>-104.7</v>
+        <v>-116.5</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
@@ -3259,22 +3286,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D74">
-        <v>190</v>
+        <v>187.91919999999999</v>
       </c>
       <c r="E74">
-        <v>-104.7</v>
+        <v>-95.652500000000003</v>
       </c>
       <c r="F74">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
@@ -3282,19 +3309,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D75">
-        <v>206.58750000000001</v>
+        <v>206.16249999999999</v>
       </c>
       <c r="E75">
-        <v>-104.8</v>
+        <v>-98.8</v>
       </c>
       <c r="F75">
         <v>180</v>
@@ -3305,22 +3332,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D76">
-        <v>196.58750000000001</v>
+        <v>198.6</v>
       </c>
       <c r="E76">
-        <v>-106.3</v>
+        <v>-98.8</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
@@ -3328,22 +3355,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
         <v>95</v>
       </c>
       <c r="D77">
-        <v>200.58750000000001</v>
+        <v>183.91919999999999</v>
       </c>
       <c r="E77">
-        <v>-106.3</v>
+        <v>-104.7</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
@@ -3351,22 +3378,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
       </c>
       <c r="C78" t="s">
         <v>95</v>
       </c>
       <c r="D78">
-        <v>136.32499999999999</v>
+        <v>191.41919999999999</v>
       </c>
       <c r="E78">
-        <v>-95.385000000000005</v>
+        <v>-100.6525</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
@@ -3374,22 +3401,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
         <v>95</v>
       </c>
       <c r="D79">
-        <v>121.325</v>
+        <v>185.91919999999999</v>
       </c>
       <c r="E79">
-        <v>-98.94</v>
+        <v>-104.7</v>
       </c>
       <c r="F79">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
@@ -3397,22 +3424,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>136.32499999999999</v>
+        <v>190</v>
       </c>
       <c r="E80">
-        <v>-93.385000000000005</v>
+        <v>-104.7</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
@@ -3420,22 +3447,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
       </c>
       <c r="D81">
-        <v>136.32499999999999</v>
+        <v>206.58750000000001</v>
       </c>
       <c r="E81">
-        <v>-91.385000000000005</v>
+        <v>-104.8</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
@@ -3443,22 +3470,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82">
-        <v>121.325</v>
+        <v>196.58750000000001</v>
       </c>
       <c r="E82">
-        <v>-96.94</v>
+        <v>-106.3</v>
       </c>
       <c r="F82">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
@@ -3466,22 +3493,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
         <v>95</v>
       </c>
       <c r="D83">
-        <v>121.325</v>
+        <v>200.58750000000001</v>
       </c>
       <c r="E83">
-        <v>-94.94</v>
+        <v>-106.3</v>
       </c>
       <c r="F83">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
@@ -3489,10 +3516,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="1">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C84" t="s">
         <v>95</v>
@@ -3501,10 +3528,10 @@
         <v>136.32499999999999</v>
       </c>
       <c r="E84">
-        <v>-89.385000000000005</v>
+        <v>-95.385000000000005</v>
       </c>
       <c r="F84">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
@@ -3512,10 +3539,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" s="1">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C85" t="s">
         <v>95</v>
@@ -3524,7 +3551,7 @@
         <v>121.325</v>
       </c>
       <c r="E85">
-        <v>-92.94</v>
+        <v>-98.94</v>
       </c>
       <c r="F85">
         <v>180</v>
@@ -3535,10 +3562,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="1">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C86" t="s">
         <v>95</v>
@@ -3547,10 +3574,10 @@
         <v>136.32499999999999</v>
       </c>
       <c r="E86">
-        <v>-87.385000000000005</v>
+        <v>-93.385000000000005</v>
       </c>
       <c r="F86">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
@@ -3558,22 +3585,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="1">
-        <v>100</v>
+        <v>110</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C87" t="s">
         <v>95</v>
       </c>
       <c r="D87">
-        <v>121.325</v>
+        <v>136.32499999999999</v>
       </c>
       <c r="E87">
-        <v>-90.94</v>
+        <v>-91.385000000000005</v>
       </c>
       <c r="F87">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -3581,19 +3608,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="1">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
       </c>
       <c r="D88">
-        <v>136.32499999999999</v>
+        <v>121.325</v>
       </c>
       <c r="E88">
-        <v>-85.385000000000005</v>
+        <v>-96.94</v>
       </c>
       <c r="F88">
         <v>180</v>
@@ -3604,10 +3631,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="1">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C89" t="s">
         <v>95</v>
@@ -3616,7 +3643,7 @@
         <v>121.325</v>
       </c>
       <c r="E89">
-        <v>-88.94</v>
+        <v>-94.94</v>
       </c>
       <c r="F89">
         <v>180</v>
@@ -3627,7 +3654,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1">
         <v>100</v>
@@ -3639,7 +3666,7 @@
         <v>136.32499999999999</v>
       </c>
       <c r="E90">
-        <v>-83.385000000000005</v>
+        <v>-89.385000000000005</v>
       </c>
       <c r="F90">
         <v>180</v>
@@ -3650,7 +3677,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1">
         <v>100</v>
@@ -3662,7 +3689,7 @@
         <v>121.325</v>
       </c>
       <c r="E91">
-        <v>-86.94</v>
+        <v>-92.94</v>
       </c>
       <c r="F91">
         <v>180</v>
@@ -3673,22 +3700,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="B92" s="1">
+        <v>100</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
       </c>
       <c r="D92">
-        <v>117.825</v>
+        <v>136.32499999999999</v>
       </c>
       <c r="E92">
-        <v>-97.19</v>
+        <v>-87.385000000000005</v>
       </c>
       <c r="F92">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
@@ -3696,22 +3723,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>122</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="B93" s="1">
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93">
-        <v>117.825</v>
+        <v>121.325</v>
       </c>
       <c r="E93">
-        <v>-91.69</v>
+        <v>-90.94</v>
       </c>
       <c r="F93">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
@@ -3719,22 +3746,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>123</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
+      </c>
+      <c r="B94" s="1">
+        <v>100</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94">
-        <v>117.825</v>
+        <v>136.32499999999999</v>
       </c>
       <c r="E94">
-        <v>-84.19</v>
+        <v>-85.385000000000005</v>
       </c>
       <c r="F94">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
@@ -3742,10 +3769,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
+      </c>
+      <c r="B95" s="1">
+        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
@@ -3754,10 +3781,10 @@
         <v>121.325</v>
       </c>
       <c r="E95">
-        <v>-84.94</v>
+        <v>-88.94</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
@@ -3765,7 +3792,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1">
         <v>100</v>
@@ -3774,13 +3801,13 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>137.83500000000001</v>
+        <v>136.32499999999999</v>
       </c>
       <c r="E96">
-        <v>-111.0056</v>
+        <v>-83.385000000000005</v>
       </c>
       <c r="F96">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
@@ -3788,7 +3815,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1">
         <v>100</v>
@@ -3797,13 +3824,13 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>135.83500000000001</v>
+        <v>121.325</v>
       </c>
       <c r="E97">
-        <v>-111.0056</v>
+        <v>-86.94</v>
       </c>
       <c r="F97">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
@@ -3811,22 +3838,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="1">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C98" t="s">
         <v>95</v>
       </c>
       <c r="D98">
-        <v>133.83500000000001</v>
+        <v>117.825</v>
       </c>
       <c r="E98">
-        <v>-111.0056</v>
+        <v>-97.19</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
@@ -3834,7 +3861,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>107</v>
@@ -3843,10 +3870,10 @@
         <v>95</v>
       </c>
       <c r="D99">
-        <v>136.61500000000001</v>
+        <v>117.825</v>
       </c>
       <c r="E99">
-        <v>-130.00559999999999</v>
+        <v>-91.69</v>
       </c>
       <c r="F99">
         <v>-90</v>
@@ -3857,7 +3884,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>107</v>
@@ -3866,13 +3893,13 @@
         <v>95</v>
       </c>
       <c r="D100">
-        <v>134.61500000000001</v>
+        <v>117.825</v>
       </c>
       <c r="E100">
-        <v>-130.00559999999999</v>
+        <v>-84.19</v>
       </c>
       <c r="F100">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
@@ -3880,22 +3907,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="1">
-        <v>100</v>
+        <v>124</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C101" t="s">
         <v>95</v>
       </c>
       <c r="D101">
-        <v>131.83500000000001</v>
+        <v>121.325</v>
       </c>
       <c r="E101">
-        <v>-111.0056</v>
+        <v>-84.94</v>
       </c>
       <c r="F101">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
@@ -3903,22 +3930,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
+      </c>
+      <c r="B102" s="1">
+        <v>100</v>
       </c>
       <c r="C102" t="s">
         <v>95</v>
       </c>
       <c r="D102">
-        <v>132.61500000000001</v>
+        <v>137.83500000000001</v>
       </c>
       <c r="E102">
-        <v>-130.00559999999999</v>
+        <v>-111.0056</v>
       </c>
       <c r="F102">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
@@ -3926,22 +3953,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100</v>
       </c>
       <c r="C103" t="s">
         <v>95</v>
       </c>
       <c r="D103">
-        <v>130.61500000000001</v>
+        <v>135.83500000000001</v>
       </c>
       <c r="E103">
-        <v>-130.00559999999999</v>
+        <v>-111.0056</v>
       </c>
       <c r="F103">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
@@ -3949,7 +3976,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1">
         <v>100</v>
@@ -3958,7 +3985,7 @@
         <v>95</v>
       </c>
       <c r="D104">
-        <v>129.83500000000001</v>
+        <v>133.83500000000001</v>
       </c>
       <c r="E104">
         <v>-111.0056</v>
@@ -3972,22 +3999,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="1">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C105" t="s">
         <v>95</v>
       </c>
       <c r="D105">
-        <v>127.88500000000001</v>
+        <v>136.61500000000001</v>
       </c>
       <c r="E105">
-        <v>-111.0056</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F105">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
@@ -3995,7 +4022,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>107</v>
@@ -4004,7 +4031,7 @@
         <v>95</v>
       </c>
       <c r="D106">
-        <v>128.61500000000001</v>
+        <v>134.61500000000001</v>
       </c>
       <c r="E106">
         <v>-130.00559999999999</v>
@@ -4018,7 +4045,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B107" s="1">
         <v>100</v>
@@ -4027,7 +4054,7 @@
         <v>95</v>
       </c>
       <c r="D107">
-        <v>125.83499999999999</v>
+        <v>131.83500000000001</v>
       </c>
       <c r="E107">
         <v>-111.0056</v>
@@ -4041,22 +4068,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="1">
-        <v>100</v>
+        <v>131</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>95</v>
       </c>
       <c r="D108">
-        <v>124.61499999999999</v>
+        <v>132.61500000000001</v>
       </c>
       <c r="E108">
         <v>-130.00559999999999</v>
       </c>
       <c r="F108">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
@@ -4064,22 +4091,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" s="1">
-        <v>100</v>
+        <v>132</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>95</v>
       </c>
       <c r="D109">
-        <v>123.83499999999999</v>
+        <v>130.61500000000001</v>
       </c>
       <c r="E109">
-        <v>-111.0056</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F109">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
@@ -4087,7 +4114,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B110" s="1">
         <v>100</v>
@@ -4096,10 +4123,10 @@
         <v>95</v>
       </c>
       <c r="D110">
-        <v>122.61499999999999</v>
+        <v>129.83500000000001</v>
       </c>
       <c r="E110">
-        <v>-130.00559999999999</v>
+        <v>-111.0056</v>
       </c>
       <c r="F110">
         <v>90</v>
@@ -4110,7 +4137,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B111" s="1">
         <v>100</v>
@@ -4119,7 +4146,7 @@
         <v>95</v>
       </c>
       <c r="D111">
-        <v>121.83499999999999</v>
+        <v>127.88500000000001</v>
       </c>
       <c r="E111">
         <v>-111.0056</v>
@@ -4133,22 +4160,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" s="1">
-        <v>100</v>
+        <v>135</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C112" t="s">
         <v>95</v>
       </c>
       <c r="D112">
-        <v>120.61499999999999</v>
+        <v>128.61500000000001</v>
       </c>
       <c r="E112">
         <v>-130.00559999999999</v>
       </c>
       <c r="F112">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
@@ -4156,7 +4183,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B113" s="1">
         <v>100</v>
@@ -4165,7 +4192,7 @@
         <v>95</v>
       </c>
       <c r="D113">
-        <v>119.83499999999999</v>
+        <v>125.83499999999999</v>
       </c>
       <c r="E113">
         <v>-111.0056</v>
@@ -4179,22 +4206,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
+      </c>
+      <c r="B114" s="1">
+        <v>100</v>
       </c>
       <c r="C114" t="s">
         <v>95</v>
       </c>
       <c r="D114">
-        <v>126.61499999999999</v>
+        <v>124.61499999999999</v>
       </c>
       <c r="E114">
         <v>-130.00559999999999</v>
       </c>
       <c r="F114">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
@@ -4202,7 +4229,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B115" s="1">
         <v>100</v>
@@ -4211,10 +4238,10 @@
         <v>95</v>
       </c>
       <c r="D115">
-        <v>118.61499999999999</v>
+        <v>123.83499999999999</v>
       </c>
       <c r="E115">
-        <v>-130.00559999999999</v>
+        <v>-111.0056</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -4225,7 +4252,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B116" s="1">
         <v>100</v>
@@ -4234,10 +4261,10 @@
         <v>95</v>
       </c>
       <c r="D116">
-        <v>117.83499999999999</v>
+        <v>122.61499999999999</v>
       </c>
       <c r="E116">
-        <v>-111.0056</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -4248,7 +4275,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B117" s="1">
         <v>100</v>
@@ -4257,10 +4284,10 @@
         <v>95</v>
       </c>
       <c r="D117">
-        <v>116.61499999999999</v>
+        <v>121.83499999999999</v>
       </c>
       <c r="E117">
-        <v>-130.00559999999999</v>
+        <v>-111.0056</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -4271,22 +4298,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="B118" s="1">
+        <v>100</v>
       </c>
       <c r="C118" t="s">
         <v>95</v>
       </c>
       <c r="D118">
-        <v>136.845</v>
+        <v>120.61499999999999</v>
       </c>
       <c r="E118">
-        <v>-107.25155100000001</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
         <v>5</v>
@@ -4294,22 +4321,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
+      </c>
+      <c r="B119" s="1">
+        <v>100</v>
       </c>
       <c r="C119" t="s">
         <v>95</v>
       </c>
       <c r="D119">
-        <v>129.095</v>
+        <v>119.83499999999999</v>
       </c>
       <c r="E119">
-        <v>-107.25155100000001</v>
+        <v>-111.0056</v>
       </c>
       <c r="F119">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G119" t="s">
         <v>5</v>
@@ -4317,7 +4344,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>107</v>
@@ -4326,13 +4353,13 @@
         <v>95</v>
       </c>
       <c r="D120">
-        <v>128.25</v>
+        <v>126.61499999999999</v>
       </c>
       <c r="E120">
-        <v>-105.00155100000001</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G120" t="s">
         <v>5</v>
@@ -4340,22 +4367,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>150</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
+      </c>
+      <c r="B121" s="1">
+        <v>100</v>
       </c>
       <c r="C121" t="s">
         <v>95</v>
       </c>
       <c r="D121">
-        <v>121.5</v>
+        <v>118.61499999999999</v>
       </c>
       <c r="E121">
-        <v>-105.0056</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F121">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
         <v>5</v>
@@ -4363,22 +4390,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="B122" s="1">
+        <v>100</v>
       </c>
       <c r="C122" t="s">
         <v>95</v>
       </c>
       <c r="D122">
-        <v>135.63499999999999</v>
+        <v>117.83499999999999</v>
       </c>
       <c r="E122">
-        <v>-132.75559999999999</v>
+        <v>-111.0056</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
@@ -4386,22 +4413,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>152</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
+      </c>
+      <c r="B123" s="1">
+        <v>100</v>
       </c>
       <c r="C123" t="s">
         <v>95</v>
       </c>
       <c r="D123">
-        <v>118.04</v>
+        <v>116.61499999999999</v>
       </c>
       <c r="E123">
-        <v>-132.75559999999999</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F123">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G123" t="s">
         <v>5</v>
@@ -4409,7 +4436,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>107</v>
@@ -4418,13 +4445,13 @@
         <v>95</v>
       </c>
       <c r="D124">
-        <v>114.655</v>
+        <v>136.845</v>
       </c>
       <c r="E124">
-        <v>-130.00559999999999</v>
+        <v>-107.25155100000001</v>
       </c>
       <c r="F124">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
@@ -4432,7 +4459,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>107</v>
@@ -4441,13 +4468,13 @@
         <v>95</v>
       </c>
       <c r="D125">
-        <v>120.595</v>
+        <v>129.095</v>
       </c>
       <c r="E125">
         <v>-107.25155100000001</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
@@ -4455,22 +4482,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>155</v>
-      </c>
-      <c r="B126" s="1">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C126" t="s">
         <v>95</v>
       </c>
       <c r="D126">
-        <v>132.75</v>
+        <v>128.25</v>
       </c>
       <c r="E126">
-        <v>-77.25</v>
+        <v>-105.00155100000001</v>
       </c>
       <c r="F126">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
@@ -4478,22 +4505,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>156</v>
-      </c>
-      <c r="B127" s="1">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C127" t="s">
         <v>95</v>
       </c>
       <c r="D127">
-        <v>130.21</v>
+        <v>121.5</v>
       </c>
       <c r="E127">
-        <v>-77.25</v>
+        <v>-105.0056</v>
       </c>
       <c r="F127">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G127" t="s">
         <v>5</v>
@@ -4501,22 +4528,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
         <v>95</v>
       </c>
       <c r="D128">
-        <v>150.84595100000001</v>
+        <v>135.63499999999999</v>
       </c>
       <c r="E128">
-        <v>-83</v>
+        <v>-132.75559999999999</v>
       </c>
       <c r="F128">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
@@ -4524,22 +4551,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C129" t="s">
         <v>95</v>
       </c>
       <c r="D129">
-        <v>150.84595100000001</v>
+        <v>118.04</v>
       </c>
       <c r="E129">
-        <v>-79</v>
+        <v>-132.75559999999999</v>
       </c>
       <c r="F129">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
@@ -4547,22 +4574,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
         <v>95</v>
       </c>
       <c r="D130">
-        <v>170.84595100000001</v>
+        <v>114.655</v>
       </c>
       <c r="E130">
-        <v>-83</v>
+        <v>-130.00559999999999</v>
       </c>
       <c r="F130">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
@@ -4570,22 +4597,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C131" t="s">
         <v>95</v>
       </c>
       <c r="D131">
-        <v>170.84595100000001</v>
+        <v>120.595</v>
       </c>
       <c r="E131">
-        <v>-79</v>
+        <v>-107.25155100000001</v>
       </c>
       <c r="F131">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
@@ -4593,7 +4620,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B132" s="1">
         <v>100</v>
@@ -4602,7 +4629,7 @@
         <v>95</v>
       </c>
       <c r="D132">
-        <v>122.52500000000001</v>
+        <v>132.75</v>
       </c>
       <c r="E132">
         <v>-77.25</v>
@@ -4616,7 +4643,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B133" s="1">
         <v>100</v>
@@ -4625,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="D133">
-        <v>162.75</v>
+        <v>130.21</v>
       </c>
       <c r="E133">
         <v>-77.25</v>
@@ -4639,22 +4666,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>164</v>
-      </c>
-      <c r="B134" s="1">
-        <v>100</v>
+        <v>157</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C134" t="s">
         <v>95</v>
       </c>
       <c r="D134">
-        <v>119.985</v>
+        <v>150.84595100000001</v>
       </c>
       <c r="E134">
-        <v>-77.25</v>
+        <v>-83</v>
       </c>
       <c r="F134">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
@@ -4662,19 +4689,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" s="1">
-        <v>100</v>
+        <v>159</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C135" t="s">
         <v>95</v>
       </c>
       <c r="D135">
-        <v>167</v>
+        <v>150.84595100000001</v>
       </c>
       <c r="E135">
-        <v>-77.25</v>
+        <v>-79</v>
       </c>
       <c r="F135">
         <v>90</v>
@@ -4685,7 +4712,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>158</v>
@@ -4694,10 +4721,10 @@
         <v>95</v>
       </c>
       <c r="D136">
-        <v>150.84595100000001</v>
+        <v>170.84595100000001</v>
       </c>
       <c r="E136">
-        <v>-99</v>
+        <v>-83</v>
       </c>
       <c r="F136">
         <v>-90</v>
@@ -4708,7 +4735,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>158</v>
@@ -4717,10 +4744,10 @@
         <v>95</v>
       </c>
       <c r="D137">
-        <v>150.84595100000001</v>
+        <v>170.84595100000001</v>
       </c>
       <c r="E137">
-        <v>-95</v>
+        <v>-79</v>
       </c>
       <c r="F137">
         <v>90</v>
@@ -4731,22 +4758,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="B138" s="1">
+        <v>100</v>
       </c>
       <c r="C138" t="s">
         <v>95</v>
       </c>
       <c r="D138">
-        <v>170.84595100000001</v>
+        <v>122.52500000000001</v>
       </c>
       <c r="E138">
-        <v>-99</v>
+        <v>-77.25</v>
       </c>
       <c r="F138">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G138" t="s">
         <v>5</v>
@@ -4754,19 +4781,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="B139" s="1">
+        <v>100</v>
       </c>
       <c r="C139" t="s">
         <v>95</v>
       </c>
       <c r="D139">
-        <v>170.84595100000001</v>
+        <v>162.75</v>
       </c>
       <c r="E139">
-        <v>-95</v>
+        <v>-77.25</v>
       </c>
       <c r="F139">
         <v>90</v>
@@ -4777,7 +4804,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B140" s="1">
         <v>100</v>
@@ -4786,10 +4813,10 @@
         <v>95</v>
       </c>
       <c r="D140">
-        <v>162.75</v>
+        <v>119.985</v>
       </c>
       <c r="E140">
-        <v>-93.25</v>
+        <v>-77.25</v>
       </c>
       <c r="F140">
         <v>90</v>
@@ -4800,7 +4827,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B141" s="1">
         <v>100</v>
@@ -4812,7 +4839,7 @@
         <v>167</v>
       </c>
       <c r="E141">
-        <v>-93.25</v>
+        <v>-77.25</v>
       </c>
       <c r="F141">
         <v>90</v>
@@ -4823,7 +4850,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>158</v>
@@ -4835,7 +4862,7 @@
         <v>150.84595100000001</v>
       </c>
       <c r="E142">
-        <v>-115</v>
+        <v>-99</v>
       </c>
       <c r="F142">
         <v>-90</v>
@@ -4846,7 +4873,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>158</v>
@@ -4858,7 +4885,7 @@
         <v>150.84595100000001</v>
       </c>
       <c r="E143">
-        <v>-111</v>
+        <v>-95</v>
       </c>
       <c r="F143">
         <v>90</v>
@@ -4869,7 +4896,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>158</v>
@@ -4881,7 +4908,7 @@
         <v>170.84595100000001</v>
       </c>
       <c r="E144">
-        <v>-115</v>
+        <v>-99</v>
       </c>
       <c r="F144">
         <v>-90</v>
@@ -4892,7 +4919,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>158</v>
@@ -4904,7 +4931,7 @@
         <v>170.84595100000001</v>
       </c>
       <c r="E145">
-        <v>-111</v>
+        <v>-95</v>
       </c>
       <c r="F145">
         <v>90</v>
@@ -4915,7 +4942,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B146" s="1">
         <v>100</v>
@@ -4927,7 +4954,7 @@
         <v>162.75</v>
       </c>
       <c r="E146">
-        <v>-109.25</v>
+        <v>-93.25</v>
       </c>
       <c r="F146">
         <v>90</v>
@@ -4938,7 +4965,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B147" s="1">
         <v>100</v>
@@ -4950,7 +4977,7 @@
         <v>167</v>
       </c>
       <c r="E147">
-        <v>-109.25</v>
+        <v>-93.25</v>
       </c>
       <c r="F147">
         <v>90</v>
@@ -4961,7 +4988,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>158</v>
@@ -4973,7 +5000,7 @@
         <v>150.84595100000001</v>
       </c>
       <c r="E148">
-        <v>-131</v>
+        <v>-115</v>
       </c>
       <c r="F148">
         <v>-90</v>
@@ -4984,7 +5011,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>158</v>
@@ -4996,7 +5023,7 @@
         <v>150.84595100000001</v>
       </c>
       <c r="E149">
-        <v>-127</v>
+        <v>-111</v>
       </c>
       <c r="F149">
         <v>90</v>
@@ -5007,7 +5034,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>158</v>
@@ -5019,7 +5046,7 @@
         <v>170.84595100000001</v>
       </c>
       <c r="E150">
-        <v>-131</v>
+        <v>-115</v>
       </c>
       <c r="F150">
         <v>-90</v>
@@ -5030,7 +5057,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>158</v>
@@ -5042,7 +5069,7 @@
         <v>170.84595100000001</v>
       </c>
       <c r="E151">
-        <v>-127</v>
+        <v>-111</v>
       </c>
       <c r="F151">
         <v>90</v>
@@ -5053,7 +5080,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B152" s="1">
         <v>100</v>
@@ -5065,7 +5092,7 @@
         <v>162.75</v>
       </c>
       <c r="E152">
-        <v>-125.25</v>
+        <v>-109.25</v>
       </c>
       <c r="F152">
         <v>90</v>
@@ -5076,7 +5103,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B153" s="1">
         <v>100</v>
@@ -5088,7 +5115,7 @@
         <v>167</v>
       </c>
       <c r="E153">
-        <v>-125.25</v>
+        <v>-109.25</v>
       </c>
       <c r="F153">
         <v>90</v>
@@ -5099,22 +5126,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
         <v>95</v>
       </c>
       <c r="D154">
-        <v>182</v>
+        <v>150.84595100000001</v>
       </c>
       <c r="E154">
-        <v>-117.5</v>
+        <v>-131</v>
       </c>
       <c r="F154">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
@@ -5122,22 +5149,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
         <v>95</v>
       </c>
       <c r="D155">
-        <v>182</v>
+        <v>150.84595100000001</v>
       </c>
       <c r="E155">
-        <v>-126</v>
+        <v>-127</v>
       </c>
       <c r="F155">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
@@ -5145,22 +5172,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>186</v>
-      </c>
-      <c r="B156" s="1">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C156" t="s">
         <v>95</v>
       </c>
       <c r="D156">
-        <v>185.15404899999999</v>
+        <v>170.84595100000001</v>
       </c>
       <c r="E156">
-        <v>-132.91249999999999</v>
+        <v>-131</v>
       </c>
       <c r="F156">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
@@ -5168,7 +5195,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>158</v>
@@ -5177,13 +5204,13 @@
         <v>95</v>
       </c>
       <c r="D157">
-        <v>192.5</v>
+        <v>170.84595100000001</v>
       </c>
       <c r="E157">
-        <v>-130</v>
+        <v>-127</v>
       </c>
       <c r="F157">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
@@ -5191,22 +5218,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C158" t="s">
         <v>95</v>
       </c>
       <c r="D158">
-        <v>194.5</v>
+        <v>162.75</v>
       </c>
       <c r="E158">
-        <v>-130</v>
+        <v>-125.25</v>
       </c>
       <c r="F158">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G158" t="s">
         <v>5</v>
@@ -5214,22 +5241,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
         <v>95</v>
       </c>
       <c r="D159">
-        <v>191.75</v>
+        <v>167</v>
       </c>
       <c r="E159">
-        <v>-132.91249999999999</v>
+        <v>-125.25</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
@@ -5237,22 +5264,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>190</v>
-      </c>
-      <c r="B160" s="1">
-        <v>100</v>
+        <v>184</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C160" t="s">
         <v>95</v>
       </c>
       <c r="D160">
-        <v>203.08750000000001</v>
+        <v>182</v>
       </c>
       <c r="E160">
-        <v>-125.54</v>
+        <v>-117.5</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
@@ -5260,22 +5287,22 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>191</v>
-      </c>
-      <c r="B161" s="1">
-        <v>100</v>
+        <v>185</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C161" t="s">
         <v>95</v>
       </c>
       <c r="D161">
-        <v>203.08750000000001</v>
+        <v>182</v>
       </c>
       <c r="E161">
-        <v>-123</v>
+        <v>-126</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
@@ -5283,22 +5310,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B162" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
         <v>95</v>
       </c>
       <c r="D162">
-        <v>203.08750000000001</v>
+        <v>185.15404899999999</v>
       </c>
       <c r="E162">
-        <v>-120.46</v>
+        <v>-132.91249999999999</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
@@ -5306,22 +5333,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>193</v>
-      </c>
-      <c r="B163" s="1">
-        <v>100</v>
+        <v>187</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C163" t="s">
         <v>95</v>
       </c>
       <c r="D163">
-        <v>197</v>
+        <v>192.5</v>
       </c>
       <c r="E163">
-        <v>-125</v>
+        <v>-130</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
@@ -5329,22 +5356,22 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B164" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C164" t="s">
         <v>95</v>
       </c>
       <c r="D164">
-        <v>197</v>
+        <v>194.5</v>
       </c>
       <c r="E164">
-        <v>-118.1</v>
+        <v>-130</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
@@ -5352,19 +5379,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B165" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C165" t="s">
         <v>95</v>
       </c>
       <c r="D165">
-        <v>199.5</v>
+        <v>191.75</v>
       </c>
       <c r="E165">
-        <v>-120.1</v>
+        <v>-132.91249999999999</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -5375,7 +5402,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B166" s="1">
         <v>100</v>
@@ -5384,13 +5411,13 @@
         <v>95</v>
       </c>
       <c r="D166">
-        <v>192</v>
+        <v>203.08750000000001</v>
       </c>
       <c r="E166">
-        <v>-114</v>
+        <v>-125.54</v>
       </c>
       <c r="F166">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
@@ -5398,22 +5425,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>197</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="B167" s="1">
+        <v>100</v>
       </c>
       <c r="C167" t="s">
         <v>95</v>
       </c>
       <c r="D167">
-        <v>192</v>
+        <v>203.08750000000001</v>
       </c>
       <c r="E167">
-        <v>-81.75</v>
+        <v>-123</v>
       </c>
       <c r="F167">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
@@ -5421,22 +5448,22 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>199</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="B168" s="1">
+        <v>100</v>
       </c>
       <c r="C168" t="s">
         <v>95</v>
       </c>
       <c r="D168">
-        <v>189.5</v>
+        <v>203.08750000000001</v>
       </c>
       <c r="E168">
-        <v>-77.5</v>
+        <v>-120.46</v>
       </c>
       <c r="F168">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
@@ -5444,22 +5471,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B169" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C169" t="s">
         <v>95</v>
       </c>
       <c r="D169">
-        <v>181.25</v>
+        <v>197</v>
       </c>
       <c r="E169">
-        <v>-77.25</v>
+        <v>-125</v>
       </c>
       <c r="F169">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
@@ -5467,22 +5494,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B170" s="1">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="C170" t="s">
         <v>95</v>
       </c>
       <c r="D170">
-        <v>206.25</v>
+        <v>197</v>
       </c>
       <c r="E170">
-        <v>-95.75</v>
+        <v>-118.1</v>
       </c>
       <c r="F170">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
@@ -5490,19 +5517,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>202</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="B171" s="1">
+        <v>100</v>
       </c>
       <c r="C171" t="s">
         <v>95</v>
       </c>
       <c r="D171">
-        <v>189</v>
+        <v>199.5</v>
       </c>
       <c r="E171">
-        <v>-93.25</v>
+        <v>-120.1</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -5513,19 +5540,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>204</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="B172" s="1">
+        <v>100</v>
       </c>
       <c r="C172" t="s">
         <v>95</v>
       </c>
       <c r="D172">
-        <v>199.5</v>
+        <v>192</v>
       </c>
       <c r="E172">
-        <v>-92</v>
+        <v>-114</v>
       </c>
       <c r="F172">
         <v>90</v>
@@ -5536,22 +5563,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C173" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="D173">
-        <v>187.91919999999999</v>
+        <v>192</v>
       </c>
       <c r="E173">
-        <v>-100.6525</v>
+        <v>-81.75</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
@@ -5559,22 +5586,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="D174">
-        <v>186.5</v>
+        <v>189.5</v>
       </c>
       <c r="E174">
-        <v>-87.25</v>
+        <v>-77.5</v>
       </c>
       <c r="F174">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
@@ -5582,19 +5609,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>212</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
+      </c>
+      <c r="B175" s="1">
+        <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="D175">
-        <v>148</v>
+        <v>181.25</v>
       </c>
       <c r="E175">
-        <v>-82.5</v>
+        <v>-77.25</v>
       </c>
       <c r="F175">
         <v>-90</v>
@@ -5605,22 +5632,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>214</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="B176" s="1">
+        <v>290</v>
       </c>
       <c r="C176" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="D176">
-        <v>168</v>
+        <v>206.25</v>
       </c>
       <c r="E176">
-        <v>-82.5</v>
+        <v>-95.75</v>
       </c>
       <c r="F176">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
@@ -5628,22 +5655,22 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C177" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="D177">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E177">
-        <v>-98.5</v>
+        <v>-93.25</v>
       </c>
       <c r="F177">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
@@ -5651,22 +5678,22 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C178" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="D178">
-        <v>168</v>
+        <v>199.5</v>
       </c>
       <c r="E178">
-        <v>-98.5</v>
+        <v>-92</v>
       </c>
       <c r="F178">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
@@ -5674,22 +5701,22 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D179">
-        <v>148</v>
+        <v>187.91919999999999</v>
       </c>
       <c r="E179">
-        <v>-114.5</v>
+        <v>-100.6525</v>
       </c>
       <c r="F179">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
@@ -5697,22 +5724,22 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C180" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D180">
-        <v>168</v>
+        <v>186.5</v>
       </c>
       <c r="E180">
-        <v>-114.5</v>
+        <v>-87.25</v>
       </c>
       <c r="F180">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
@@ -5720,7 +5747,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>213</v>
@@ -5732,7 +5759,7 @@
         <v>148</v>
       </c>
       <c r="E181">
-        <v>-130.5</v>
+        <v>-82.5</v>
       </c>
       <c r="F181">
         <v>-90</v>
@@ -5743,7 +5770,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>213</v>
@@ -5755,12 +5782,150 @@
         <v>168</v>
       </c>
       <c r="E182">
-        <v>-130.5</v>
+        <v>-82.5</v>
       </c>
       <c r="F182">
         <v>-90</v>
       </c>
       <c r="G182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>215</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" t="s">
+        <v>211</v>
+      </c>
+      <c r="D183">
+        <v>148</v>
+      </c>
+      <c r="E183">
+        <v>-98.5</v>
+      </c>
+      <c r="F183">
+        <v>-90</v>
+      </c>
+      <c r="G183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>216</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C184" t="s">
+        <v>211</v>
+      </c>
+      <c r="D184">
+        <v>168</v>
+      </c>
+      <c r="E184">
+        <v>-98.5</v>
+      </c>
+      <c r="F184">
+        <v>-90</v>
+      </c>
+      <c r="G184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>217</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C185" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185">
+        <v>148</v>
+      </c>
+      <c r="E185">
+        <v>-114.5</v>
+      </c>
+      <c r="F185">
+        <v>-90</v>
+      </c>
+      <c r="G185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>218</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" t="s">
+        <v>211</v>
+      </c>
+      <c r="D186">
+        <v>168</v>
+      </c>
+      <c r="E186">
+        <v>-114.5</v>
+      </c>
+      <c r="F186">
+        <v>-90</v>
+      </c>
+      <c r="G186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>219</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D187">
+        <v>148</v>
+      </c>
+      <c r="E187">
+        <v>-130.5</v>
+      </c>
+      <c r="F187">
+        <v>-90</v>
+      </c>
+      <c r="G187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C188" t="s">
+        <v>211</v>
+      </c>
+      <c r="D188">
+        <v>168</v>
+      </c>
+      <c r="E188">
+        <v>-130.5</v>
+      </c>
+      <c r="F188">
+        <v>-90</v>
+      </c>
+      <c r="G188" t="s">
         <v>5</v>
       </c>
     </row>

--- a/hardware/Fabrication files/fydp-pick-and-place.xlsx
+++ b/hardware/Fabrication files/fydp-pick-and-place.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingze\Documents\KiCad\7.0\projects\FYDP\hardware\Fabrication files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461487E-4F44-4264-9D14-384A05B1F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5088CC-F64E-4155-A33C-9F983FCE0E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fydp-pick-and-place" sheetId="1" r:id="rId1"/>
@@ -709,9 +709,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>TerminalBlock_Phoenix_PT-1,5-2-3.5-H_1x02_P3.50mm_Horizontal</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
@@ -725,6 +722,9 @@
   </si>
   <si>
     <t>J13</t>
+  </si>
+  <si>
+    <t>1751248:CONN_1751248_PXC</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,10 +3177,10 @@
         <v>1751248</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D69">
-        <v>205.8</v>
+        <v>207.05</v>
       </c>
       <c r="E69">
         <v>-92</v>
@@ -3194,13 +3194,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="1">
         <v>5011</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D70">
         <v>137</v>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B71" s="1">
         <v>5011</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71">
         <v>181.25</v>
@@ -3240,13 +3240,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72" s="1">
         <v>5011</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D72">
         <v>181.25</v>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B73" s="1">
         <v>5011</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D73">
         <v>137</v>
